--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_22da\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\studia\Semestr 5\Badania operacyjne 2\timetable-scheduler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5AE625F-E1DA-4A0B-B82C-F7C5E0142609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B5DAA42-5904-402E-A4B0-E4A351BE60DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="in" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
   <si>
     <t>nazwa</t>
   </si>
@@ -63,36 +52,54 @@
     <t>D10-A</t>
   </si>
   <si>
+    <t>B1-014</t>
+  </si>
+  <si>
     <t>Algebra liniowa</t>
   </si>
   <si>
     <t>B1-H24</t>
   </si>
   <si>
+    <t>D8-505</t>
+  </si>
+  <si>
     <t>Analiza matematyczna</t>
   </si>
   <si>
     <t>B1-121</t>
   </si>
   <si>
+    <t>D8-403</t>
+  </si>
+  <si>
     <t>Eksploracja danych</t>
   </si>
   <si>
     <t>C2-224</t>
   </si>
   <si>
+    <t>C3-201</t>
+  </si>
+  <si>
     <t>Projektowanie konstrukcji z rysunkiem technicznym</t>
   </si>
   <si>
     <t>B2-123</t>
   </si>
   <si>
+    <t>D1-203</t>
+  </si>
+  <si>
     <t>Wprowadzenie do automatyki i robotyki</t>
   </si>
   <si>
     <t xml:space="preserve">Wstep do informatyki </t>
   </si>
   <si>
+    <t>C3-217</t>
+  </si>
+  <si>
     <t>Wychowanie fizyczne 1</t>
   </si>
   <si>
@@ -102,12 +109,18 @@
     <t>Fizyka 2</t>
   </si>
   <si>
+    <t>D10-303</t>
+  </si>
+  <si>
     <t>Rownania rozniczkowe</t>
   </si>
   <si>
     <t>Rachunek prawdopodobienstwa i statystyka</t>
   </si>
   <si>
+    <t>B1-202</t>
+  </si>
+  <si>
     <t>Prototypowanie konstrukcji w technice druku 3D i CNC</t>
   </si>
   <si>
@@ -120,6 +133,9 @@
     <t>Elektronika cyfrowa</t>
   </si>
   <si>
+    <t>B1-315</t>
+  </si>
+  <si>
     <t>Inzynieria procesow produkcyjnych</t>
   </si>
   <si>
@@ -129,12 +145,18 @@
     <t>Teoria obwodow</t>
   </si>
   <si>
+    <t>B2-220</t>
+  </si>
+  <si>
     <t>Wychowanie fizyczne 2</t>
   </si>
   <si>
     <t>Jezyk obcy 1</t>
   </si>
   <si>
+    <t>D13-209</t>
+  </si>
+  <si>
     <t>Metody numeryczne</t>
   </si>
   <si>
@@ -150,6 +172,9 @@
     <t>Systemy pomiarowe</t>
   </si>
   <si>
+    <t>B1-317a</t>
+  </si>
+  <si>
     <t>Podstawy Automatyki 1</t>
   </si>
   <si>
@@ -162,6 +187,9 @@
     <t>B2-121</t>
   </si>
   <si>
+    <t>B1-317c</t>
+  </si>
+  <si>
     <t>Wychowanie fizyczne 3</t>
   </si>
   <si>
@@ -177,18 +205,30 @@
     <t>Podstawy robotyki z kinematyka</t>
   </si>
   <si>
+    <t>C3-1</t>
+  </si>
+  <si>
     <t>Elektronika analogowa</t>
   </si>
   <si>
     <t>Badania operacyjne 1</t>
   </si>
   <si>
+    <t>D2-111</t>
+  </si>
+  <si>
     <t>Napedy elektryczne</t>
   </si>
   <si>
+    <t>B2-317</t>
+  </si>
+  <si>
     <t xml:space="preserve">Automatyka pojazdowa </t>
   </si>
   <si>
+    <t>D2-1</t>
+  </si>
+  <si>
     <t>Algorytmy i struktury danych</t>
   </si>
   <si>
@@ -207,18 +247,9 @@
     <t>Technika mikroprocesorowa</t>
   </si>
   <si>
-    <t>B1-315</t>
-  </si>
-  <si>
     <t>Metody optymalizacji</t>
   </si>
   <si>
-    <t>B1-014</t>
-  </si>
-  <si>
-    <t>B1-317c</t>
-  </si>
-  <si>
     <t>Teoria sterowania 1</t>
   </si>
   <si>
@@ -228,21 +259,12 @@
     <t>Konstrukcje i programowanie robotow</t>
   </si>
   <si>
-    <t>C3-1</t>
-  </si>
-  <si>
     <t>Identyfikacja procesow technologicznych</t>
   </si>
   <si>
-    <t>B1-317a</t>
-  </si>
-  <si>
     <t>Analiza i Bazy Danych</t>
   </si>
   <si>
-    <t>C3-217</t>
-  </si>
-  <si>
     <t>Systemy wspomagania decyzji</t>
   </si>
   <si>
@@ -255,9 +277,6 @@
     <t>Badania operacyjne 2</t>
   </si>
   <si>
-    <t>D2-1.11</t>
-  </si>
-  <si>
     <t>Zagadnienia przedsiebiorczosci i prawa autorskiego</t>
   </si>
   <si>
@@ -276,6 +295,9 @@
     <t>Systemy wbudowane</t>
   </si>
   <si>
+    <t>B1-111</t>
+  </si>
+  <si>
     <t>Robotyka mobilna</t>
   </si>
   <si>
@@ -285,10 +307,13 @@
     <t>Komputerowo wspomagane projektowanie systemow sterowania</t>
   </si>
   <si>
+    <t>B1-110</t>
+  </si>
+  <si>
     <t>Podstawy business intelligence</t>
   </si>
   <si>
-    <t>Przedmiot projektowe</t>
+    <t>Pracownia projektowa</t>
   </si>
   <si>
     <t>Sztuczna inteligencja i sensoryka</t>
@@ -297,6 +322,9 @@
     <t>Automatyka zabezpieczeniowa</t>
   </si>
   <si>
+    <t>B1-13</t>
+  </si>
+  <si>
     <t>Tworzenie aplikacji do symulacji i sterowania procesow dyskretnych</t>
   </si>
   <si>
@@ -304,6 +332,9 @@
   </si>
   <si>
     <t>Kolo naukowe</t>
+  </si>
+  <si>
+    <t>C1-201b</t>
   </si>
   <si>
     <t>Expert systems</t>
@@ -321,8 +352,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,12 +505,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -823,9 +848,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -885,9 +909,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -925,7 +949,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1031,7 +1055,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1180,21 +1204,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:H48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="60.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1239,10 +1261,16 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1257,12 +1285,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1277,12 +1311,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1297,12 +1337,18 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1317,12 +1363,18 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1337,12 +1389,18 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1357,12 +1415,18 @@
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1380,12 +1444,15 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1402,10 +1469,16 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1420,12 +1493,18 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1440,12 +1519,18 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1460,12 +1545,18 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1480,12 +1571,18 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1500,12 +1597,18 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1520,12 +1623,18 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1540,12 +1649,18 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1560,12 +1675,18 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1583,12 +1704,15 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1608,10 +1732,13 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1626,12 +1753,18 @@
         <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1646,12 +1779,18 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1666,12 +1805,18 @@
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1686,12 +1831,18 @@
         <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1706,12 +1857,18 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1726,12 +1883,18 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1746,12 +1909,18 @@
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1765,13 +1934,19 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1788,10 +1963,16 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1806,12 +1987,18 @@
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -1826,12 +2013,18 @@
         <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1846,12 +2039,18 @@
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1866,12 +2065,18 @@
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1886,12 +2091,18 @@
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1906,12 +2117,18 @@
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -1926,12 +2143,18 @@
         <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -1946,12 +2169,18 @@
         <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -1966,12 +2195,18 @@
         <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -1988,10 +2223,16 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2006,18 +2247,18 @@
         <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -2032,18 +2273,18 @@
         <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -2058,18 +2299,18 @@
         <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -2084,18 +2325,18 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -2110,18 +2351,18 @@
         <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -2136,18 +2377,18 @@
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -2162,18 +2403,18 @@
         <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -2188,18 +2429,18 @@
         <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -2214,18 +2455,18 @@
         <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -2240,12 +2481,18 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -2260,12 +2507,18 @@
         <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -2280,12 +2533,18 @@
         <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2300,12 +2559,18 @@
         <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -2320,12 +2585,18 @@
         <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -2340,12 +2611,18 @@
         <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -2360,12 +2637,18 @@
         <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -2380,12 +2663,18 @@
         <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -2400,12 +2689,18 @@
         <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -2422,10 +2717,16 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>7</v>
@@ -2440,12 +2741,18 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -2460,12 +2767,18 @@
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B61">
         <v>7</v>
@@ -2480,12 +2793,18 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B62">
         <v>7</v>
@@ -2500,12 +2819,18 @@
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>77</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B63">
         <v>7</v>
@@ -2522,10 +2847,16 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B64">
         <v>7</v>
@@ -2540,12 +2871,18 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -2560,12 +2897,18 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B66">
         <v>7</v>
@@ -2580,12 +2923,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -2600,7 +2949,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
